--- a/domain/classes.xlsx
+++ b/domain/classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raejin\study\1_spring\2_스프링핵심원리\core\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB09C26-6AC3-4D2D-B69D-AC6B2B852943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0787494-40F0-417C-81DE-88A779005025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="11805" windowWidth="32745" windowHeight="19665" xr2:uid="{A4709D44-818C-42DE-8888-0EB6996C79B1}"/>
+    <workbookView xWindow="0" yWindow="13890" windowWidth="20205" windowHeight="17910" xr2:uid="{A4709D44-818C-42DE-8888-0EB6996C79B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RateDiscountPolicy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,6 +233,20 @@
       <t xml:space="preserve">
 OrderService</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- defaultRate: int = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmtDiscountPolicy
+( Amount of money )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PctDiscountPolicy
+( Percentage )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4598809D-9711-4242-BD72-6BCD31025B4C}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -684,7 +694,7 @@
     <col min="7" max="16384" width="20.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -692,101 +702,110 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
